--- a/sputnik/personal/ee/18ee.xlsx
+++ b/sputnik/personal/ee/18ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,10 +36,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>переплата</t>
-  </si>
-  <si>
-    <t>нет данных</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -56,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,20 +90,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -133,14 +122,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -150,7 +151,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -159,21 +160,16 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -481,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F2:F3"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -495,427 +491,343 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>43572</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1050</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>396</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43651</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D7" si="0">SUM(C4,-C2)</f>
+        <v>100</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
+        <v>449</v>
+      </c>
+      <c r="G4" s="5">
+        <f>SUM(F4,F5)</f>
+        <v>531.62</v>
+      </c>
+      <c r="H4" s="5">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>430</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="1"/>
+        <v>82.62</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1330</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="1"/>
+        <v>808.2</v>
+      </c>
+      <c r="G6" s="5">
+        <f>SUM(F6,F7)</f>
+        <v>1002.6</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>510</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="1"/>
+        <v>194.4</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>43761</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1560</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(C8,-C6)</f>
+        <v>230</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="1"/>
+        <v>1032.7</v>
+      </c>
+      <c r="G8" s="5">
+        <f>SUM(F8,F9)</f>
+        <v>1300</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>620</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(C9,-C7)</f>
+        <v>110</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="1"/>
+        <v>267.3</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>43798</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
         <v>1780</v>
       </c>
-      <c r="D2" s="3">
-        <f>SUM(C2,-C4)</f>
-        <v>450</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="D10" s="2">
+        <f>SUM(C10,-C8)</f>
+        <v>220</v>
+      </c>
+      <c r="E10" s="7">
         <v>4.49</v>
       </c>
-      <c r="F2" s="13">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="F10" s="9">
+        <f t="shared" ref="F10:F11" si="2">D10*E10</f>
+        <v>987.80000000000007</v>
+      </c>
+      <c r="G10" s="5">
+        <f>SUM(F10,F11)</f>
+        <v>1352.3000000000002</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1352.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C11" s="2">
         <v>770</v>
       </c>
-      <c r="D3" s="3">
-        <f>SUM(C3,-C5)</f>
-        <v>260</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D11" s="2">
+        <f t="shared" ref="D11" si="3">SUM(C11,-C9)</f>
+        <v>150</v>
+      </c>
+      <c r="E11" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F3" s="6">
-        <f>D3*E3</f>
-        <v>631.80000000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>43761</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1330</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="F11" s="9">
+        <f t="shared" si="2"/>
+        <v>364.5</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>43920</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1911.86</v>
+      </c>
+      <c r="G12" s="5">
+        <f>SUM(F12,F13)</f>
+        <v>1911.86</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1911.86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" ref="F12:F13" si="4">D13*E13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F4" s="13">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>510</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F5" s="6">
-        <f>D5*E5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43714</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1330</v>
-      </c>
-      <c r="D6" s="3">
-        <f>SUM(C6,-C9)</f>
-        <v>180</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="6">
-        <f>D6*E6</f>
-        <v>808.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>510</v>
-      </c>
-      <c r="D7" s="3">
-        <f>SUM(C7,-C10)</f>
-        <v>80</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="6">
-        <f>D7*E7</f>
-        <v>194.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
-        <v>6.38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43651</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1150</v>
-      </c>
-      <c r="D9" s="3">
-        <f>SUM(C9,-C11)</f>
-        <v>100</v>
-      </c>
-      <c r="E9" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F9" s="6">
-        <f>D9*E9</f>
-        <v>449</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>430</v>
-      </c>
-      <c r="D10" s="3">
-        <f>SUM(C10,-C12)</f>
-        <v>34</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>82.62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>43572</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1050</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" ref="D11:D18" si="0">SUM(C11,-C13)</f>
-        <v>190</v>
-      </c>
-      <c r="E11" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>868.30000000000007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
-        <v>396</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>121.89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43379</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>860</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="E13" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" ref="F13:F18" si="1">D13*E13</f>
-        <v>945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>345</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="1"/>
-        <v>223.25</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>3</v>
+      <c r="G14" s="5">
+        <f>SUM(G4:G13)</f>
+        <v>6098.38</v>
+      </c>
+      <c r="H14" s="5">
+        <f>SUM(H4:H13)</f>
+        <v>6129.16</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>43330</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>650</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E15" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="1"/>
-        <v>675</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>250</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E16" s="8">
-        <v>2.35</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="1"/>
-        <v>117.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>43281</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>500</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>202</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="1"/>
-        <v>866.58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>200</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="1"/>
-        <v>147.56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>43204</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5">
-        <v>298</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5">
-        <v>132</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="6"/>
+      <c r="F15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
+        <f>SUM(H14,-G14)</f>
+        <v>30.779999999999745</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/18ee.xlsx
+++ b/sputnik/personal/ee/18ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -800,33 +800,82 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" ref="F12:F13" si="4">D13*E13</f>
+        <f t="shared" ref="F13" si="4">D13*E13</f>
         <v>0</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="11" t="s">
+      <c r="A14" s="8">
+        <v>43990</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2321</v>
+      </c>
+      <c r="D14" s="2">
+        <v>541</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" ref="F14:F15" si="5">D14*E14</f>
+        <v>2429.09</v>
+      </c>
+      <c r="G14" s="5">
+        <f>SUM(F14,F15)</f>
+        <v>3155.6600000000003</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3225.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1069</v>
+      </c>
+      <c r="D15" s="2">
+        <v>299</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="5"/>
+        <v>726.57</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="5">
-        <f>SUM(G4:G13)</f>
-        <v>6098.38</v>
-      </c>
-      <c r="H14" s="5">
-        <f>SUM(H4:H13)</f>
-        <v>6129.16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="11" t="s">
+      <c r="G16" s="5">
+        <f>SUM(G4:G15)</f>
+        <v>9254.0400000000009</v>
+      </c>
+      <c r="H16" s="5">
+        <f>SUM(H4:H15)</f>
+        <v>9354.82</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5">
-        <f>SUM(H14,-G14)</f>
-        <v>30.779999999999745</v>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5">
+        <f>SUM(H16,-G16)</f>
+        <v>100.77999999999884</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/18ee.xlsx
+++ b/sputnik/personal/ee/18ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -477,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -856,25 +856,74 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="11" t="s">
+      <c r="A16" s="8">
+        <v>44105</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2321</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" ref="F16:F17" si="6">D16*E16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <f>SUM(F16,F17)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1484.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1069</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G18" s="5">
         <f>SUM(G4:G15)</f>
         <v>9254.0400000000009</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H18" s="5">
         <f>SUM(H4:H15)</f>
         <v>9354.82</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="11" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5">
+        <f>SUM(H18,-G18)</f>
         <v>100.77999999999884</v>
       </c>
     </row>

--- a/sputnik/personal/ee/18ee.xlsx
+++ b/sputnik/personal/ee/18ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +86,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -139,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -170,6 +177,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -477,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -813,7 +823,7 @@
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="12">
         <v>2321</v>
       </c>
       <c r="D14" s="2">
@@ -839,7 +849,7 @@
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="12">
         <v>1069</v>
       </c>
       <c r="D15" s="2">
@@ -863,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>2321</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" ref="F16:F17" si="6">D16*E16</f>
@@ -889,13 +899,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>1069</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" si="6"/>
@@ -905,25 +915,74 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="11" t="s">
+      <c r="A18" s="8">
+        <v>44144</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>200</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" ref="F18:F19" si="7">D18*E18</f>
+        <v>942</v>
+      </c>
+      <c r="G18" s="5">
+        <f>SUM(F18,F19)</f>
+        <v>1281.1500000000001</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1281.1500000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>133</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="7"/>
+        <v>339.15</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G20" s="5">
         <f>SUM(G4:G15)</f>
         <v>9254.0400000000009</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H20" s="5">
         <f>SUM(H4:H15)</f>
         <v>9354.82</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="11" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5">
-        <f>SUM(H18,-G18)</f>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5">
+        <f>SUM(H20,-G20)</f>
         <v>100.77999999999884</v>
       </c>
     </row>

--- a/sputnik/personal/ee/18ee.xlsx
+++ b/sputnik/personal/ee/18ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>остаток</t>
+  </si>
+  <si>
+    <t>электрик</t>
   </si>
 </sst>
 </file>
@@ -98,12 +101,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -146,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -178,6 +187,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,10 +502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -873,21 +888,21 @@
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>2575</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="E16" s="7">
         <v>4.71</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" ref="F16:F17" si="6">D16*E16</f>
-        <v>0</v>
+        <v>1196.3399999999999</v>
       </c>
       <c r="G16" s="5">
         <f>SUM(F16,F17)</f>
-        <v>0</v>
+        <v>1484.4899999999998</v>
       </c>
       <c r="H16" s="5">
         <v>1484.49</v>
@@ -899,17 +914,17 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>1182</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="E17" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>288.14999999999998</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -922,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="12">
-        <v>0</v>
+        <v>2775</v>
       </c>
       <c r="D18" s="2">
         <v>200</v>
@@ -948,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="12">
-        <v>0</v>
+        <v>1315</v>
       </c>
       <c r="D19" s="2">
         <v>133</v>
@@ -964,25 +979,74 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="11" t="s">
+      <c r="A20" s="8">
+        <v>44296</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13">
+        <v>2941</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="9" t="e">
+        <f t="shared" ref="F20:F21" si="8">D20*E20</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G20" s="5" t="e">
+        <f>SUM(F20,F21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1463</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G22" s="5">
         <f>SUM(G4:G15)</f>
         <v>9254.0400000000009</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H22" s="5">
         <f>SUM(H4:H15)</f>
         <v>9354.82</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="11" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5">
+        <f>SUM(H22,-G22)</f>
         <v>100.77999999999884</v>
       </c>
     </row>

--- a/sputnik/personal/ee/18ee.xlsx
+++ b/sputnik/personal/ee/18ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>электрик</t>
+  </si>
+  <si>
+    <t>ы</t>
   </si>
 </sst>
 </file>
@@ -502,10 +505,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -995,7 +998,7 @@
         <v>4.71</v>
       </c>
       <c r="F20" s="9" t="e">
-        <f t="shared" ref="F20:F21" si="8">D20*E20</f>
+        <f t="shared" ref="F20:F23" si="8">D20*E20</f>
         <v>#VALUE!</v>
       </c>
       <c r="G20" s="5" t="e">
@@ -1028,26 +1031,80 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="11" t="s">
+      <c r="A22" s="8">
+        <v>44343</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>3071</v>
+      </c>
+      <c r="D22" s="2">
+        <v>200</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="8"/>
+        <v>942</v>
+      </c>
+      <c r="G22" s="5">
+        <f>SUM(F22,F23)</f>
+        <v>1281.1500000000001</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1888.86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1509</v>
+      </c>
+      <c r="D23" s="2">
+        <v>133</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="8"/>
+        <v>339.15</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G24" s="5">
         <f>SUM(G4:G15)</f>
         <v>9254.0400000000009</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H24" s="5">
         <f>SUM(H4:H15)</f>
         <v>9354.82</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="11" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5">
-        <f>SUM(H22,-G22)</f>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5">
+        <f>SUM(H24,-G24)</f>
         <v>100.77999999999884</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/18ee.xlsx
+++ b/sputnik/personal/ee/18ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>остаток</t>
-  </si>
-  <si>
-    <t>электрик</t>
   </si>
   <si>
     <t>ы</t>
@@ -104,18 +101,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -158,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -190,12 +181,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,8 +492,8 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -983,30 +968,30 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <v>44296</v>
+        <v>44343</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="13">
-        <v>2941</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>12</v>
+      <c r="C20" s="12">
+        <v>3071</v>
+      </c>
+      <c r="D20" s="2">
+        <v>200</v>
       </c>
       <c r="E20" s="7">
         <v>4.71</v>
       </c>
-      <c r="F20" s="9" t="e">
-        <f t="shared" ref="F20:F23" si="8">D20*E20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G20" s="5" t="e">
+      <c r="F20" s="9">
+        <f t="shared" ref="F20:F21" si="8">D20*E20</f>
+        <v>942</v>
+      </c>
+      <c r="G20" s="5">
         <f>SUM(F20,F21)</f>
-        <v>#VALUE!</v>
+        <v>1281.1500000000001</v>
       </c>
       <c r="H20" s="5">
-        <v>0</v>
+        <v>1888.86</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1014,48 +999,49 @@
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="13">
-        <v>1463</v>
-      </c>
-      <c r="D21" s="14">
-        <v>0</v>
+      <c r="C21" s="12">
+        <v>1509</v>
+      </c>
+      <c r="D21" s="2">
+        <v>133</v>
       </c>
       <c r="E21" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>339.15</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <v>44343</v>
+        <v>44442</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="12">
-        <v>3071</v>
+        <v>3280</v>
       </c>
       <c r="D22" s="2">
-        <v>200</v>
+        <f>SUM(C22,-C20)</f>
+        <v>209</v>
       </c>
       <c r="E22" s="7">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="8"/>
-        <v>942</v>
+        <f t="shared" ref="F22:F23" si="9">D22*E22</f>
+        <v>1036.6400000000001</v>
       </c>
       <c r="G22" s="5">
         <f>SUM(F22,F23)</f>
-        <v>1281.1500000000001</v>
+        <v>1280.5200000000002</v>
       </c>
       <c r="H22" s="5">
-        <v>1888.86</v>
+        <v>1216.44</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1064,17 +1050,18 @@
         <v>1</v>
       </c>
       <c r="C23" s="12">
-        <v>1509</v>
+        <v>1600</v>
       </c>
       <c r="D23" s="2">
-        <v>133</v>
+        <f>SUM(C23,-C21)</f>
+        <v>91</v>
       </c>
       <c r="E23" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="8"/>
-        <v>339.15</v>
+        <f t="shared" si="9"/>
+        <v>243.88000000000002</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -1084,12 +1071,12 @@
         <v>10</v>
       </c>
       <c r="G24" s="5">
-        <f>SUM(G4:G15)</f>
-        <v>9254.0400000000009</v>
+        <f>SUM(G4:G23)</f>
+        <v>14581.35</v>
       </c>
       <c r="H24" s="5">
-        <f>SUM(H4:H15)</f>
-        <v>9354.82</v>
+        <f>SUM(H4:H23)</f>
+        <v>15225.76</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1099,12 +1086,12 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5">
         <f>SUM(H24,-G24)</f>
-        <v>100.77999999999884</v>
+        <v>644.40999999999985</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/18ee.xlsx
+++ b/sputnik/personal/ee/18ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>остаток</t>
-  </si>
-  <si>
-    <t>ы</t>
   </si>
 </sst>
 </file>
@@ -101,12 +98,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -149,15 +152,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -176,11 +176,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,10 +490,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -512,88 +512,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>43572</v>
+      <c r="A2" s="11">
+        <v>44442</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>1050</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="C2" s="10">
+        <v>3280</v>
+      </c>
+      <c r="D2" s="2">
+        <f>SUM(C2,-C4)</f>
+        <v>209</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="8">
+        <f t="shared" ref="F2:F7" si="0">D2*E2</f>
+        <v>1036.6400000000001</v>
+      </c>
+      <c r="G2" s="4">
+        <f>SUM(F2,F3)</f>
+        <v>1280.5200000000002</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1216.44</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>396</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="C3" s="10">
+        <v>1600</v>
+      </c>
+      <c r="D3" s="2">
+        <f>SUM(C3,-C5)</f>
+        <v>91</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" si="0"/>
+        <v>243.88000000000002</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>43651</v>
+      <c r="A4" s="7">
+        <v>44343</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
-        <v>1150</v>
+      <c r="C4" s="10">
+        <v>3071</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D7" si="0">SUM(C4,-C2)</f>
-        <v>100</v>
-      </c>
-      <c r="E4" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F4" s="9">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>449</v>
-      </c>
-      <c r="G4" s="5">
+        <f>SUM(C4,-C6)</f>
+        <v>296</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>1394.16</v>
+      </c>
+      <c r="G4" s="4">
         <f>SUM(F4,F5)</f>
-        <v>531.62</v>
-      </c>
-      <c r="H4" s="5">
-        <v>538</v>
+        <v>1888.8600000000001</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1888.86</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -601,50 +622,50 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
-        <v>430</v>
+      <c r="C5" s="10">
+        <v>1509</v>
       </c>
       <c r="D5" s="2">
+        <f>SUM(C5,-C7)</f>
+        <v>194</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F5" s="9">
-        <f t="shared" si="1"/>
-        <v>82.62</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+        <v>494.7</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>43714</v>
+      <c r="A6" s="7">
+        <v>44144</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
-        <v>1330</v>
+      <c r="C6" s="10">
+        <v>2775</v>
       </c>
       <c r="D6" s="2">
+        <f>SUM(C6,-C8)</f>
+        <v>200</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="9">
-        <f t="shared" si="1"/>
-        <v>808.2</v>
-      </c>
-      <c r="G6" s="5">
+        <v>942</v>
+      </c>
+      <c r="G6" s="4">
         <f>SUM(F6,F7)</f>
-        <v>1002.6</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1013</v>
+        <v>1281.1500000000001</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1281.1500000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -652,446 +673,74 @@
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <v>510</v>
+      <c r="C7" s="10">
+        <v>1315</v>
       </c>
       <c r="D7" s="2">
+        <f>SUM(C7,-C9)</f>
+        <v>133</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="9">
-        <f t="shared" si="1"/>
-        <v>194.4</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+        <v>339.15</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>43761</v>
+      <c r="A8" s="7">
+        <v>44105</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>1560</v>
-      </c>
-      <c r="D8" s="2">
-        <f>SUM(C8,-C6)</f>
-        <v>230</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="9">
-        <f t="shared" si="1"/>
-        <v>1032.7</v>
-      </c>
-      <c r="G8" s="5">
-        <f>SUM(F8,F9)</f>
-        <v>1300</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1314</v>
-      </c>
+        <v>2575</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>620</v>
-      </c>
-      <c r="D9" s="2">
-        <f>SUM(C9,-C7)</f>
-        <v>110</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="9">
-        <f t="shared" si="1"/>
-        <v>267.3</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+        <v>1182</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>43798</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1780</v>
-      </c>
-      <c r="D10" s="2">
-        <f>SUM(C10,-C8)</f>
-        <v>220</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="9">
-        <f t="shared" ref="F10:F11" si="2">D10*E10</f>
-        <v>987.80000000000007</v>
-      </c>
-      <c r="G10" s="5">
-        <f>SUM(F10,F11)</f>
-        <v>1352.3000000000002</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1352.3</v>
+      <c r="F10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4">
+        <f>SUM(G2:G9)</f>
+        <v>4450.5300000000007</v>
+      </c>
+      <c r="H10" s="4">
+        <f>SUM(H2:H9)</f>
+        <v>4386.4500000000007</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>770</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" ref="D11" si="3">SUM(C11,-C9)</f>
-        <v>150</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="9">
-        <f t="shared" si="2"/>
-        <v>364.5</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>43920</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1911.86</v>
-      </c>
-      <c r="G12" s="5">
-        <f>SUM(F12,F13)</f>
-        <v>1911.86</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1911.86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="9">
-        <f t="shared" ref="F13" si="4">D13*E13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>43990</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="12">
-        <v>2321</v>
-      </c>
-      <c r="D14" s="2">
-        <v>541</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="9">
-        <f t="shared" ref="F14:F15" si="5">D14*E14</f>
-        <v>2429.09</v>
-      </c>
-      <c r="G14" s="5">
-        <f>SUM(F14,F15)</f>
-        <v>3155.6600000000003</v>
-      </c>
-      <c r="H14" s="5">
-        <v>3225.66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12">
-        <v>1069</v>
-      </c>
-      <c r="D15" s="2">
-        <v>299</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="9">
-        <f t="shared" si="5"/>
-        <v>726.57</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>44105</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2575</v>
-      </c>
-      <c r="D16" s="2">
-        <v>254</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="9">
-        <f t="shared" ref="F16:F17" si="6">D16*E16</f>
-        <v>1196.3399999999999</v>
-      </c>
-      <c r="G16" s="5">
-        <f>SUM(F16,F17)</f>
-        <v>1484.4899999999998</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1484.49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1182</v>
-      </c>
-      <c r="D17" s="2">
-        <v>113</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="9">
-        <f t="shared" si="6"/>
-        <v>288.14999999999998</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>44144</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="12">
-        <v>2775</v>
-      </c>
-      <c r="D18" s="2">
-        <v>200</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="9">
-        <f t="shared" ref="F18:F19" si="7">D18*E18</f>
-        <v>942</v>
-      </c>
-      <c r="G18" s="5">
-        <f>SUM(F18,F19)</f>
-        <v>1281.1500000000001</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1281.1500000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12">
-        <v>1315</v>
-      </c>
-      <c r="D19" s="2">
-        <v>133</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="9">
-        <f t="shared" si="7"/>
-        <v>339.15</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>44343</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12">
-        <v>3071</v>
-      </c>
-      <c r="D20" s="2">
-        <v>200</v>
-      </c>
-      <c r="E20" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="9">
-        <f t="shared" ref="F20:F21" si="8">D20*E20</f>
-        <v>942</v>
-      </c>
-      <c r="G20" s="5">
-        <f>SUM(F20,F21)</f>
-        <v>1281.1500000000001</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1888.86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="12">
-        <v>1509</v>
-      </c>
-      <c r="D21" s="2">
-        <v>133</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="9">
-        <f t="shared" si="8"/>
-        <v>339.15</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>44442</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="12">
-        <v>3280</v>
-      </c>
-      <c r="D22" s="2">
-        <f>SUM(C22,-C20)</f>
-        <v>209</v>
-      </c>
-      <c r="E22" s="7">
-        <v>4.96</v>
-      </c>
-      <c r="F22" s="9">
-        <f t="shared" ref="F22:F23" si="9">D22*E22</f>
-        <v>1036.6400000000001</v>
-      </c>
-      <c r="G22" s="5">
-        <f>SUM(F22,F23)</f>
-        <v>1280.5200000000002</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1216.44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="12">
-        <v>1600</v>
-      </c>
-      <c r="D23" s="2">
-        <f>SUM(C23,-C21)</f>
-        <v>91</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2.68</v>
-      </c>
-      <c r="F23" s="9">
-        <f t="shared" si="9"/>
-        <v>243.88000000000002</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="5">
-        <f>SUM(G4:G23)</f>
-        <v>14581.35</v>
-      </c>
-      <c r="H24" s="5">
-        <f>SUM(H4:H23)</f>
-        <v>15225.76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5">
-        <f>SUM(H24,-G24)</f>
-        <v>644.40999999999985</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="1" t="s">
-        <v>12</v>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
+        <f>SUM(H10,-G10)</f>
+        <v>-64.079999999999927</v>
       </c>
     </row>
   </sheetData>
